--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidliu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidliu/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C077403-3B14-3D45-B886-59406CF23DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6986D05-32E4-DB47-ABDF-EEB11794AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     Q125 guidance: DD revenue growth</t>
       </text>
     </comment>
-    <comment ref="V82" authorId="2" shapeId="0" xr:uid="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
+    <comment ref="V83" authorId="2" shapeId="0" xr:uid="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -450,8 +450,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -566,10 +566,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -602,7 +602,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>32147</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -652,7 +652,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>7350</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>60373</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1004,7 +1004,7 @@
   <threadedComment ref="AJ34" dT="2024-09-11T18:29:26.52" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{A4A66BCC-1D5A-42FB-AF87-0976A774FC6D}">
     <text>Q125 guidance: DD revenue growth</text>
   </threadedComment>
-  <threadedComment ref="V82" dT="2024-09-11T18:53:29.19" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
+  <threadedComment ref="V83" dT="2024-09-11T18:53:29.19" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
     <text>Didn’t add up?</text>
   </threadedComment>
 </ThreadedComments>
@@ -1118,13 +1118,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284BEAAF-34CF-A143-8837-7F659B2590CD}">
-  <dimension ref="A1:DZ85"/>
+  <dimension ref="A1:DZ86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AF14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AF25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AU36" sqref="AU36"/>
+      <selection pane="bottomRight" activeCell="AV46" sqref="AV46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2182,24 +2182,24 @@
         <v>57399</v>
       </c>
       <c r="AK18" s="9">
-        <f>AJ18*1.09</f>
-        <v>62564.91</v>
+        <f>AJ18*1.13</f>
+        <v>64860.869999999995</v>
       </c>
       <c r="AL18" s="9">
-        <f t="shared" ref="AL18:AO18" si="13">AK18*1.09</f>
-        <v>68195.751900000003</v>
+        <f>AK18*1.11</f>
+        <v>71995.565700000006</v>
       </c>
       <c r="AM18" s="9">
-        <f t="shared" si="13"/>
-        <v>74333.369571000003</v>
+        <f>AL18*1.05</f>
+        <v>75595.343985000014</v>
       </c>
       <c r="AN18" s="9">
-        <f t="shared" si="13"/>
-        <v>81023.372832390014</v>
+        <f t="shared" ref="AL18:AO18" si="13">AM18*1.09</f>
+        <v>82398.924943650025</v>
       </c>
       <c r="AO18" s="9">
-        <f t="shared" si="13"/>
-        <v>88315.476387305127</v>
+        <f>AN18*1.1</f>
+        <v>90638.81743801503</v>
       </c>
     </row>
     <row r="19" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2329,23 +2329,23 @@
       </c>
       <c r="AK19" s="3">
         <f>AK18*0.22</f>
-        <v>13764.280200000001</v>
+        <v>14269.391399999999</v>
       </c>
       <c r="AL19" s="3">
         <f t="shared" ref="AL19:AO19" si="14">AL18*0.22</f>
-        <v>15003.065418</v>
+        <v>15839.024454000002</v>
       </c>
       <c r="AM19" s="3">
         <f t="shared" si="14"/>
-        <v>16353.341305620001</v>
+        <v>16630.975676700004</v>
       </c>
       <c r="AN19" s="3">
         <f t="shared" si="14"/>
-        <v>17825.142023125802</v>
+        <v>18127.763487603006</v>
       </c>
       <c r="AO19" s="3">
         <f t="shared" si="14"/>
-        <v>19429.404805207127</v>
+        <v>19940.539836363307</v>
       </c>
     </row>
     <row r="20" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2475,23 +2475,23 @@
       </c>
       <c r="AK20" s="3">
         <f t="shared" si="23"/>
-        <v>48800.629800000002</v>
+        <v>50591.478599999995</v>
       </c>
       <c r="AL20" s="3">
         <f t="shared" si="23"/>
-        <v>53192.686482000005</v>
+        <v>56156.541246000008</v>
       </c>
       <c r="AM20" s="3">
         <f t="shared" si="23"/>
-        <v>57980.028265380002</v>
+        <v>58964.368308300007</v>
       </c>
       <c r="AN20" s="3">
         <f t="shared" si="23"/>
-        <v>63198.230809264212</v>
+        <v>64271.161456047019</v>
       </c>
       <c r="AO20" s="3">
         <f t="shared" si="23"/>
-        <v>68886.071582097997</v>
+        <v>70698.277601651731</v>
       </c>
     </row>
     <row r="21" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3151,23 +3151,23 @@
       </c>
       <c r="AK25" s="5">
         <f t="shared" ref="AK25" si="51">AK20-AK24</f>
-        <v>29487.080034999999</v>
+        <v>31277.928834999992</v>
       </c>
       <c r="AL25" s="5">
         <f t="shared" ref="AL25" si="52">AL20-AL24</f>
-        <v>33686.001219350008</v>
+        <v>36649.855983350011</v>
       </c>
       <c r="AM25" s="5">
         <f t="shared" ref="AM25" si="53">AM20-AM24</f>
-        <v>38278.276150103498</v>
+        <v>39262.61619302351</v>
       </c>
       <c r="AN25" s="5">
         <f t="shared" ref="AN25" si="54">AN20-AN24</f>
-        <v>43299.461172834948</v>
+        <v>44372.391819617755</v>
       </c>
       <c r="AO25" s="5">
         <f t="shared" ref="AO25" si="55">AO20-AO24</f>
-        <v>48788.314249304443</v>
+        <v>50600.520268858178</v>
       </c>
     </row>
     <row r="26" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3272,7 +3272,7 @@
         <v>-3833</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" ref="AI26:AO26" si="57">AH42*$AR$43</f>
+        <f t="shared" ref="AI26:AO26" si="57">AH43*$AR$44</f>
         <v>0</v>
       </c>
       <c r="AJ26" s="3">
@@ -3285,19 +3285,19 @@
       </c>
       <c r="AL26" s="3">
         <f t="shared" si="57"/>
-        <v>599.44522545881875</v>
+        <v>614.66744025881871</v>
       </c>
       <c r="AM26" s="3">
         <f t="shared" si="57"/>
-        <v>890.87152023969384</v>
+        <v>931.4158893594938</v>
       </c>
       <c r="AN26" s="3">
         <f t="shared" si="57"/>
-        <v>1223.8092754376109</v>
+        <v>1273.0651620597494</v>
       </c>
       <c r="AO26" s="3">
         <f t="shared" si="57"/>
-        <v>1602.2570742479274</v>
+        <v>1661.0515464040081</v>
       </c>
     </row>
     <row r="27" spans="2:130" x14ac:dyDescent="0.15">
@@ -3423,23 +3423,23 @@
       </c>
       <c r="AK27" s="5">
         <f>+AK25+AK26</f>
-        <v>29832.9452260375</v>
+        <v>31623.794026037493</v>
       </c>
       <c r="AL27" s="5">
         <f t="shared" ref="AL27" si="70">+AL25+AL26</f>
-        <v>34285.446444808826</v>
+        <v>37264.523423608829</v>
       </c>
       <c r="AM27" s="5">
         <f t="shared" ref="AM27" si="71">+AM25+AM26</f>
-        <v>39169.147670343191</v>
+        <v>40194.032082383004</v>
       </c>
       <c r="AN27" s="5">
         <f t="shared" ref="AN27" si="72">+AN25+AN26</f>
-        <v>44523.27044827256</v>
+        <v>45645.456981677504</v>
       </c>
       <c r="AO27" s="5">
         <f t="shared" ref="AO27" si="73">+AO25+AO26</f>
-        <v>50390.571323552373</v>
+        <v>52261.571815262185</v>
       </c>
     </row>
     <row r="28" spans="2:130" x14ac:dyDescent="0.15">
@@ -3538,23 +3538,23 @@
       </c>
       <c r="AK28" s="3">
         <f>AK27*0.15</f>
-        <v>4474.941783905625</v>
+        <v>4743.5691039056237</v>
       </c>
       <c r="AL28" s="3">
         <f t="shared" ref="AL28:AO28" si="74">AL27*0.15</f>
-        <v>5142.8169667213233</v>
+        <v>5589.6785135413238</v>
       </c>
       <c r="AM28" s="3">
         <f>AM27*0.15</f>
-        <v>5875.3721505514786</v>
+        <v>6029.1048123574501</v>
       </c>
       <c r="AN28" s="3">
         <f t="shared" si="74"/>
-        <v>6678.490567240884</v>
+        <v>6846.8185472516252</v>
       </c>
       <c r="AO28" s="3">
         <f t="shared" si="74"/>
-        <v>7558.5856985328555</v>
+        <v>7839.2357722893275</v>
       </c>
     </row>
     <row r="29" spans="2:130" x14ac:dyDescent="0.15">
@@ -3679,379 +3679,379 @@
       </c>
       <c r="AK29" s="5">
         <f>AK27-AK28</f>
-        <v>25358.003442131874</v>
+        <v>26880.224922131871</v>
       </c>
       <c r="AL29" s="5">
         <f t="shared" ref="AL29" si="84">AL27-AL28</f>
-        <v>29142.629478087503</v>
+        <v>31674.844910067506</v>
       </c>
       <c r="AM29" s="5">
         <f t="shared" ref="AM29" si="85">AM27-AM28</f>
-        <v>33293.775519791714</v>
+        <v>34164.927270025553</v>
       </c>
       <c r="AN29" s="5">
         <f t="shared" ref="AN29" si="86">AN27-AN28</f>
-        <v>37844.779881031674</v>
+        <v>38798.638434425877</v>
       </c>
       <c r="AO29" s="5">
         <f t="shared" ref="AO29" si="87">AO27-AO28</f>
-        <v>42831.985625019515</v>
+        <v>44422.336042972856</v>
       </c>
       <c r="AP29" s="3">
-        <f t="shared" ref="AP29:BU29" si="88">AO29*(1+$AR$42)</f>
-        <v>43260.305481269708</v>
+        <f t="shared" ref="AP29:BU29" si="88">AO29*(1+$AR$43)</f>
+        <v>44866.559403402585</v>
       </c>
       <c r="AQ29" s="3">
         <f t="shared" si="88"/>
-        <v>43692.908536082403</v>
+        <v>45315.224997436613</v>
       </c>
       <c r="AR29" s="3">
         <f t="shared" si="88"/>
-        <v>44129.837621443228</v>
+        <v>45768.377247410979</v>
       </c>
       <c r="AS29" s="3">
         <f t="shared" si="88"/>
-        <v>44571.135997657664</v>
+        <v>46226.061019885092</v>
       </c>
       <c r="AT29" s="3">
         <f t="shared" si="88"/>
-        <v>45016.847357634244</v>
+        <v>46688.321630083941</v>
       </c>
       <c r="AU29" s="3">
         <f t="shared" si="88"/>
-        <v>45467.015831210585</v>
+        <v>47155.204846384782</v>
       </c>
       <c r="AV29" s="3">
         <f t="shared" si="88"/>
-        <v>45921.685989522688</v>
+        <v>47626.75689484863</v>
       </c>
       <c r="AW29" s="3">
         <f t="shared" si="88"/>
-        <v>46380.902849417915</v>
+        <v>48103.024463797119</v>
       </c>
       <c r="AX29" s="3">
         <f t="shared" si="88"/>
-        <v>46844.711877912094</v>
+        <v>48584.054708435091</v>
       </c>
       <c r="AY29" s="3">
         <f t="shared" si="88"/>
-        <v>47313.158996691214</v>
+        <v>49069.895255519441</v>
       </c>
       <c r="AZ29" s="3">
         <f t="shared" si="88"/>
-        <v>47786.290586658128</v>
+        <v>49560.594208074639</v>
       </c>
       <c r="BA29" s="3">
         <f t="shared" si="88"/>
-        <v>48264.153492524711</v>
+        <v>50056.200150155382</v>
       </c>
       <c r="BB29" s="3">
         <f t="shared" si="88"/>
-        <v>48746.79502744996</v>
+        <v>50556.762151656934</v>
       </c>
       <c r="BC29" s="3">
         <f t="shared" si="88"/>
-        <v>49234.262977724458</v>
+        <v>51062.329773173507</v>
       </c>
       <c r="BD29" s="3">
         <f t="shared" si="88"/>
-        <v>49726.605607501704</v>
+        <v>51572.953070905241</v>
       </c>
       <c r="BE29" s="3">
         <f t="shared" si="88"/>
-        <v>50223.87166357672</v>
+        <v>52088.682601614295</v>
       </c>
       <c r="BF29" s="3">
         <f t="shared" si="88"/>
-        <v>50726.110380212485</v>
+        <v>52609.569427630435</v>
       </c>
       <c r="BG29" s="3">
         <f t="shared" si="88"/>
-        <v>51233.371484014613</v>
+        <v>53135.665121906743</v>
       </c>
       <c r="BH29" s="3">
         <f t="shared" si="88"/>
-        <v>51745.705198854761</v>
+        <v>53667.021773125809</v>
       </c>
       <c r="BI29" s="3">
         <f t="shared" si="88"/>
-        <v>52263.162250843307</v>
+        <v>54203.691990857071</v>
       </c>
       <c r="BJ29" s="3">
         <f t="shared" si="88"/>
-        <v>52785.793873351737</v>
+        <v>54745.72891076564</v>
       </c>
       <c r="BK29" s="3">
         <f t="shared" si="88"/>
-        <v>53313.651812085256</v>
+        <v>55293.1861998733</v>
       </c>
       <c r="BL29" s="3">
         <f t="shared" si="88"/>
-        <v>53846.788330206109</v>
+        <v>55846.118061872032</v>
       </c>
       <c r="BM29" s="3">
         <f t="shared" si="88"/>
-        <v>54385.256213508168</v>
+        <v>56404.579242490756</v>
       </c>
       <c r="BN29" s="3">
         <f t="shared" si="88"/>
-        <v>54929.108775643253</v>
+        <v>56968.625034915662</v>
       </c>
       <c r="BO29" s="3">
         <f t="shared" si="88"/>
-        <v>55478.399863399689</v>
+        <v>57538.311285264819</v>
       </c>
       <c r="BP29" s="3">
         <f t="shared" si="88"/>
-        <v>56033.183862033686</v>
+        <v>58113.69439811747</v>
       </c>
       <c r="BQ29" s="3">
         <f t="shared" si="88"/>
-        <v>56593.515700654025</v>
+        <v>58694.831342098645</v>
       </c>
       <c r="BR29" s="3">
         <f t="shared" si="88"/>
-        <v>57159.450857660566</v>
+        <v>59281.779655519633</v>
       </c>
       <c r="BS29" s="3">
         <f t="shared" si="88"/>
-        <v>57731.045366237173</v>
+        <v>59874.597452074828</v>
       </c>
       <c r="BT29" s="3">
         <f t="shared" si="88"/>
-        <v>58308.355819899545</v>
+        <v>60473.343426595573</v>
       </c>
       <c r="BU29" s="3">
         <f t="shared" si="88"/>
-        <v>58891.439378098541</v>
+        <v>61078.076860861533</v>
       </c>
       <c r="BV29" s="3">
-        <f t="shared" ref="BV29:DA29" si="89">BU29*(1+$AR$42)</f>
-        <v>59480.353771879527</v>
+        <f t="shared" ref="BV29:DA29" si="89">BU29*(1+$AR$43)</f>
+        <v>61688.857629470149</v>
       </c>
       <c r="BW29" s="3">
         <f t="shared" si="89"/>
-        <v>60075.157309598326</v>
+        <v>62305.746205764852</v>
       </c>
       <c r="BX29" s="3">
         <f t="shared" si="89"/>
-        <v>60675.908882694312</v>
+        <v>62928.803667822503</v>
       </c>
       <c r="BY29" s="3">
         <f t="shared" si="89"/>
-        <v>61282.667971521252</v>
+        <v>63558.09170450073</v>
       </c>
       <c r="BZ29" s="3">
         <f t="shared" si="89"/>
-        <v>61895.494651236462</v>
+        <v>64193.672621545738</v>
       </c>
       <c r="CA29" s="3">
         <f t="shared" si="89"/>
-        <v>62514.449597748826</v>
+        <v>64835.609347761194</v>
       </c>
       <c r="CB29" s="3">
         <f t="shared" si="89"/>
-        <v>63139.594093726315</v>
+        <v>65483.965441238804</v>
       </c>
       <c r="CC29" s="3">
         <f t="shared" si="89"/>
-        <v>63770.990034663577</v>
+        <v>66138.805095651187</v>
       </c>
       <c r="CD29" s="3">
         <f t="shared" si="89"/>
-        <v>64408.699935010212</v>
+        <v>66800.193146607693</v>
       </c>
       <c r="CE29" s="3">
         <f t="shared" si="89"/>
-        <v>65052.786934360316</v>
+        <v>67468.195078073768</v>
       </c>
       <c r="CF29" s="3">
         <f t="shared" si="89"/>
-        <v>65703.314803703921</v>
+        <v>68142.877028854506</v>
       </c>
       <c r="CG29" s="3">
         <f t="shared" si="89"/>
-        <v>66360.347951740958</v>
+        <v>68824.305799143054</v>
       </c>
       <c r="CH29" s="3">
         <f t="shared" si="89"/>
-        <v>67023.951431258363</v>
+        <v>69512.54885713449</v>
       </c>
       <c r="CI29" s="3">
         <f t="shared" si="89"/>
-        <v>67694.190945570954</v>
+        <v>70207.674345705833</v>
       </c>
       <c r="CJ29" s="3">
         <f t="shared" si="89"/>
-        <v>68371.132855026663</v>
+        <v>70909.751089162892</v>
       </c>
       <c r="CK29" s="3">
         <f t="shared" si="89"/>
-        <v>69054.844183576934</v>
+        <v>71618.848600054524</v>
       </c>
       <c r="CL29" s="3">
         <f t="shared" si="89"/>
-        <v>69745.3926254127</v>
+        <v>72335.037086055076</v>
       </c>
       <c r="CM29" s="3">
         <f t="shared" si="89"/>
-        <v>70442.846551666822</v>
+        <v>73058.387456915632</v>
       </c>
       <c r="CN29" s="3">
         <f t="shared" si="89"/>
-        <v>71147.275017183492</v>
+        <v>73788.97133148479</v>
       </c>
       <c r="CO29" s="3">
         <f t="shared" si="89"/>
-        <v>71858.747767355322</v>
+        <v>74526.861044799633</v>
       </c>
       <c r="CP29" s="3">
         <f t="shared" si="89"/>
-        <v>72577.33524502888</v>
+        <v>75272.129655247627</v>
       </c>
       <c r="CQ29" s="3">
         <f t="shared" si="89"/>
-        <v>73303.108597479164</v>
+        <v>76024.850951800108</v>
       </c>
       <c r="CR29" s="3">
         <f t="shared" si="89"/>
-        <v>74036.139683453963</v>
+        <v>76785.09946131811</v>
       </c>
       <c r="CS29" s="3">
         <f t="shared" si="89"/>
-        <v>74776.501080288508</v>
+        <v>77552.950455931292</v>
       </c>
       <c r="CT29" s="3">
         <f t="shared" si="89"/>
-        <v>75524.266091091398</v>
+        <v>78328.4799604906</v>
       </c>
       <c r="CU29" s="3">
         <f t="shared" si="89"/>
-        <v>76279.508752002308</v>
+        <v>79111.76476009551</v>
       </c>
       <c r="CV29" s="3">
         <f t="shared" si="89"/>
-        <v>77042.303839522327</v>
+        <v>79902.882407696467</v>
       </c>
       <c r="CW29" s="3">
         <f t="shared" si="89"/>
-        <v>77812.72687791755</v>
+        <v>80701.911231773425</v>
       </c>
       <c r="CX29" s="3">
         <f t="shared" si="89"/>
-        <v>78590.854146696729</v>
+        <v>81508.930344091161</v>
       </c>
       <c r="CY29" s="3">
         <f t="shared" si="89"/>
-        <v>79376.762688163697</v>
+        <v>82324.01964753207</v>
       </c>
       <c r="CZ29" s="3">
         <f t="shared" si="89"/>
-        <v>80170.53031504534</v>
+        <v>83147.259844007393</v>
       </c>
       <c r="DA29" s="3">
         <f t="shared" si="89"/>
-        <v>80972.235618195788</v>
+        <v>83978.732442447465</v>
       </c>
       <c r="DB29" s="3">
-        <f t="shared" ref="DB29:DZ29" si="90">DA29*(1+$AR$42)</f>
-        <v>81781.957974377743</v>
+        <f t="shared" ref="DB29:DZ29" si="90">DA29*(1+$AR$43)</f>
+        <v>84818.519766871934</v>
       </c>
       <c r="DC29" s="3">
         <f t="shared" si="90"/>
-        <v>82599.777554121523</v>
+        <v>85666.704964540651</v>
       </c>
       <c r="DD29" s="3">
         <f t="shared" si="90"/>
-        <v>83425.775329662734</v>
+        <v>86523.372014186054</v>
       </c>
       <c r="DE29" s="3">
         <f t="shared" si="90"/>
-        <v>84260.033082959359</v>
+        <v>87388.60573432791</v>
       </c>
       <c r="DF29" s="3">
         <f t="shared" si="90"/>
-        <v>85102.63341378895</v>
+        <v>88262.491791671186</v>
       </c>
       <c r="DG29" s="3">
         <f t="shared" si="90"/>
-        <v>85953.659747926838</v>
+        <v>89145.116709587892</v>
       </c>
       <c r="DH29" s="3">
         <f t="shared" si="90"/>
-        <v>86813.196345406104</v>
+        <v>90036.567876683766</v>
       </c>
       <c r="DI29" s="3">
         <f t="shared" si="90"/>
-        <v>87681.32830886016</v>
+        <v>90936.933555450611</v>
       </c>
       <c r="DJ29" s="3">
         <f t="shared" si="90"/>
-        <v>88558.141591948763</v>
+        <v>91846.302891005122</v>
       </c>
       <c r="DK29" s="3">
         <f t="shared" si="90"/>
-        <v>89443.723007868248</v>
+        <v>92764.765919915168</v>
       </c>
       <c r="DL29" s="3">
         <f t="shared" si="90"/>
-        <v>90338.160237946926</v>
+        <v>93692.41357911432</v>
       </c>
       <c r="DM29" s="3">
         <f t="shared" si="90"/>
-        <v>91241.54184032639</v>
+        <v>94629.337714905458</v>
       </c>
       <c r="DN29" s="3">
         <f t="shared" si="90"/>
-        <v>92153.957258729657</v>
+        <v>95575.631092054507</v>
       </c>
       <c r="DO29" s="3">
         <f t="shared" si="90"/>
-        <v>93075.496831316952</v>
+        <v>96531.387402975059</v>
       </c>
       <c r="DP29" s="3">
         <f t="shared" si="90"/>
-        <v>94006.251799630118</v>
+        <v>97496.701277004817</v>
       </c>
       <c r="DQ29" s="3">
         <f t="shared" si="90"/>
-        <v>94946.314317626413</v>
+        <v>98471.668289774869</v>
       </c>
       <c r="DR29" s="3">
         <f t="shared" si="90"/>
-        <v>95895.777460802681</v>
+        <v>99456.384972672618</v>
       </c>
       <c r="DS29" s="3">
         <f t="shared" si="90"/>
-        <v>96854.735235410713</v>
+        <v>100450.94882239934</v>
       </c>
       <c r="DT29" s="3">
         <f t="shared" si="90"/>
-        <v>97823.282587764828</v>
+        <v>101455.45831062333</v>
       </c>
       <c r="DU29" s="3">
         <f t="shared" si="90"/>
-        <v>98801.515413642483</v>
+        <v>102470.01289372957</v>
       </c>
       <c r="DV29" s="3">
         <f t="shared" si="90"/>
-        <v>99789.530567778915</v>
+        <v>103494.71302266687</v>
       </c>
       <c r="DW29" s="3">
         <f t="shared" si="90"/>
-        <v>100787.42587345671</v>
+        <v>104529.66015289354</v>
       </c>
       <c r="DX29" s="3">
         <f t="shared" si="90"/>
-        <v>101795.30013219127</v>
+        <v>105574.95675442248</v>
       </c>
       <c r="DY29" s="3">
         <f t="shared" si="90"/>
-        <v>102813.25313351319</v>
+        <v>106630.7063219667</v>
       </c>
       <c r="DZ29" s="3">
         <f t="shared" si="90"/>
-        <v>103841.38566484832</v>
+        <v>107697.01338518636</v>
       </c>
     </row>
     <row r="30" spans="2:130" x14ac:dyDescent="0.15">
@@ -4176,23 +4176,23 @@
       </c>
       <c r="AK30" s="6">
         <f t="shared" si="97"/>
-        <v>9.1669239736581556</v>
+        <v>9.7172073826052863</v>
       </c>
       <c r="AL30" s="6">
         <f t="shared" si="97"/>
-        <v>10.535067140745596</v>
+        <v>11.450463591529148</v>
       </c>
       <c r="AM30" s="6">
         <f t="shared" si="97"/>
-        <v>12.035707372721813</v>
+        <v>12.350628927257317</v>
       </c>
       <c r="AN30" s="6">
         <f t="shared" si="97"/>
-        <v>13.680896477553249</v>
+        <v>14.025716560117804</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="97"/>
-        <v>15.483772480802354</v>
+        <v>16.058684516212509</v>
       </c>
     </row>
     <row r="31" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4434,15 +4434,15 @@
       </c>
       <c r="AK34" s="13">
         <f>AK18/AJ18-1</f>
-        <v>9.000000000000008E-2</v>
+        <v>0.12999999999999989</v>
       </c>
       <c r="AL34" s="13">
         <f t="shared" si="105"/>
-        <v>9.000000000000008E-2</v>
+        <v>0.1100000000000001</v>
       </c>
       <c r="AM34" s="13">
         <f t="shared" si="105"/>
-        <v>9.000000000000008E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="AN34" s="13">
         <f t="shared" si="105"/>
@@ -4450,37 +4450,68 @@
       </c>
       <c r="AO34" s="13">
         <f t="shared" si="105"/>
-        <v>9.000000000000008E-2</v>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="35" spans="2:44" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="N35" s="7">
+        <f>AVERAGE(K34:N34)</f>
+        <v>4.818054843602948E-2</v>
+      </c>
+      <c r="O35" s="7">
+        <f t="shared" ref="O35:Z35" si="106">AVERAGE(L34:O34)</f>
+        <v>8.2670865590000864E-2</v>
+      </c>
+      <c r="P35" s="7">
+        <f t="shared" si="106"/>
+        <v>0.11459654126567653</v>
+      </c>
+      <c r="Q35" s="7">
+        <f t="shared" si="106"/>
+        <v>0.14881217890599258</v>
+      </c>
+      <c r="R35" s="7">
+        <f t="shared" si="106"/>
+        <v>0.17732843488819283</v>
+      </c>
       <c r="S35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
+        <f t="shared" si="106"/>
+        <v>0.15522157791994079</v>
+      </c>
+      <c r="T35" s="7">
+        <f t="shared" si="106"/>
+        <v>0.12257434274470153</v>
+      </c>
+      <c r="U35" s="7">
+        <f t="shared" si="106"/>
+        <v>9.5534015178466991E-2</v>
+      </c>
+      <c r="V35" s="7">
+        <f t="shared" si="106"/>
+        <v>6.1498005124635602E-2</v>
+      </c>
       <c r="W35" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="X35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
+        <f t="shared" si="106"/>
+        <v>5.6624119682345042E-2</v>
+      </c>
+      <c r="X35" s="7">
+        <f t="shared" si="106"/>
+        <v>6.4657986687400582E-2</v>
+      </c>
+      <c r="Y35" s="7">
+        <f t="shared" si="106"/>
+        <v>6.2874366078169042E-2</v>
+      </c>
+      <c r="Z35" s="7">
+        <f t="shared" si="106"/>
+        <v>8.302144602591266E-2</v>
+      </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
+      <c r="AC35" s="14"/>
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
       <c r="AF35" s="13"/>
@@ -4496,404 +4527,384 @@
     </row>
     <row r="36" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+    </row>
+    <row r="37" spans="2:44" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="7">
-        <f t="shared" ref="G36:M36" si="106">G20/G18</f>
+      <c r="G37" s="7">
+        <f t="shared" ref="G37:M37" si="107">G20/G18</f>
         <v>0.79929539874025834</v>
       </c>
-      <c r="H36" s="7">
-        <f t="shared" si="106"/>
+      <c r="H37" s="7">
+        <f t="shared" si="107"/>
         <v>0.80214285714285716</v>
       </c>
-      <c r="I36" s="7">
-        <f t="shared" si="106"/>
+      <c r="I37" s="7">
+        <f t="shared" si="107"/>
         <v>0.8101140307387209</v>
       </c>
-      <c r="J36" s="7">
-        <f t="shared" si="106"/>
+      <c r="J37" s="7">
+        <f t="shared" si="107"/>
         <v>0.81099136011401085</v>
       </c>
-      <c r="K36" s="7">
-        <f t="shared" si="106"/>
+      <c r="K37" s="7">
+        <f t="shared" si="107"/>
         <v>0.78381990131578949</v>
       </c>
-      <c r="L36" s="7">
-        <f t="shared" si="106"/>
+      <c r="L37" s="7">
+        <f t="shared" si="107"/>
         <v>0.79160231660231661</v>
       </c>
-      <c r="M36" s="7">
-        <f t="shared" si="106"/>
+      <c r="M37" s="7">
+        <f t="shared" si="107"/>
         <v>0.78902311423951299</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N37" s="7">
         <f>N20/N18</f>
         <v>0.79763513513513518</v>
       </c>
-      <c r="O36" s="7">
-        <f t="shared" ref="O36:Z36" si="107">O20/O18</f>
+      <c r="O37" s="7">
+        <f t="shared" ref="O37:Z37" si="108">O20/O18</f>
         <v>0.73464394932284838</v>
       </c>
-      <c r="P36" s="7">
-        <f t="shared" si="107"/>
+      <c r="P37" s="7">
+        <f t="shared" si="108"/>
         <v>0.8</v>
       </c>
-      <c r="Q36" s="7">
-        <f t="shared" si="107"/>
+      <c r="Q37" s="7">
+        <f t="shared" si="108"/>
         <v>0.72261655105662204</v>
       </c>
-      <c r="R36" s="7">
-        <f t="shared" si="107"/>
+      <c r="R37" s="7">
+        <f t="shared" si="108"/>
         <v>0.73043289730432892</v>
       </c>
-      <c r="S36" s="7">
-        <f t="shared" si="107"/>
+      <c r="S37" s="7">
+        <f t="shared" si="108"/>
         <v>0.71011001365132898</v>
       </c>
-      <c r="T36" s="7">
-        <f t="shared" si="107"/>
+      <c r="T37" s="7">
+        <f t="shared" si="108"/>
         <v>0.71099605903716867</v>
       </c>
-      <c r="U36" s="7">
-        <f t="shared" si="107"/>
+      <c r="U37" s="7">
+        <f t="shared" si="108"/>
         <v>0.70865963855421688</v>
       </c>
-      <c r="V36" s="7">
-        <f t="shared" si="107"/>
+      <c r="V37" s="7">
+        <f t="shared" si="108"/>
         <v>0.72541471267585922</v>
       </c>
-      <c r="W36" s="7">
-        <f t="shared" si="107"/>
+      <c r="W37" s="7">
+        <f t="shared" si="108"/>
         <v>0.70647027880063129</v>
       </c>
-      <c r="X36" s="7">
-        <f t="shared" si="107"/>
+      <c r="X37" s="7">
+        <f t="shared" si="108"/>
         <v>0.70943879365530982</v>
       </c>
-      <c r="Y36" s="7">
-        <f t="shared" si="107"/>
+      <c r="Y37" s="7">
+        <f t="shared" si="108"/>
         <v>0.70311394196744514</v>
       </c>
-      <c r="Z36" s="7">
-        <f t="shared" si="107"/>
+      <c r="Z37" s="7">
+        <f t="shared" si="108"/>
         <v>0.70194302961705335</v>
       </c>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7">
-        <f t="shared" ref="AD36:AF36" si="108">AD20/AD18</f>
-        <v>0.79762567711233734</v>
-      </c>
-      <c r="AE36" s="7">
-        <f t="shared" si="108"/>
-        <v>0.79681580833418653</v>
-      </c>
-      <c r="AF36" s="7">
-        <f t="shared" si="108"/>
-        <v>0.80594876355641198</v>
-      </c>
-      <c r="AG36" s="7">
-        <f>AG20/AG18</f>
-        <v>0.79083411875589071</v>
-      </c>
-      <c r="AH36" s="7">
-        <f t="shared" ref="AH36:AO36" si="109">AH20/AH18</f>
-        <v>0.72847562806525878</v>
-      </c>
-      <c r="AI36" s="7">
-        <f>AI20/AI18</f>
-        <v>0.7140915012934046</v>
-      </c>
-      <c r="AJ36" s="7">
-        <f>AJ20/AJ18</f>
-        <v>0.70511681388177494</v>
-      </c>
-      <c r="AK36" s="7">
-        <f>AK20/AK18</f>
-        <v>0.78</v>
-      </c>
-      <c r="AL36" s="7">
-        <f t="shared" si="109"/>
-        <v>0.78</v>
-      </c>
-      <c r="AM36" s="7">
-        <f t="shared" si="109"/>
-        <v>0.78</v>
-      </c>
-      <c r="AN36" s="7">
-        <f t="shared" si="109"/>
-        <v>0.78</v>
-      </c>
-      <c r="AO36" s="7">
-        <f t="shared" si="109"/>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7">
-        <f t="shared" ref="AD37:AF37" si="110">AD25/AD18</f>
-        <v>0.39768642737811977</v>
+        <f t="shared" ref="AD37:AF37" si="109">AD20/AD18</f>
+        <v>0.79762567711233734</v>
       </c>
       <c r="AE37" s="7">
+        <f t="shared" si="109"/>
+        <v>0.79681580833418653</v>
+      </c>
+      <c r="AF37" s="7">
+        <f t="shared" si="109"/>
+        <v>0.80594876355641198</v>
+      </c>
+      <c r="AG37" s="7">
+        <f>AG20/AG18</f>
+        <v>0.79083411875589071</v>
+      </c>
+      <c r="AH37" s="7">
+        <f t="shared" ref="AH37:AO37" si="110">AH20/AH18</f>
+        <v>0.72847562806525878</v>
+      </c>
+      <c r="AI37" s="7">
+        <f>AI20/AI18</f>
+        <v>0.7140915012934046</v>
+      </c>
+      <c r="AJ37" s="7">
+        <f>AJ20/AJ18</f>
+        <v>0.70511681388177494</v>
+      </c>
+      <c r="AK37" s="7">
+        <f>AK20/AK18</f>
+        <v>0.78</v>
+      </c>
+      <c r="AL37" s="7">
         <f t="shared" si="110"/>
-        <v>0.40411590048121226</v>
-      </c>
-      <c r="AF37" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="AM37" s="7">
         <f t="shared" si="110"/>
-        <v>0.42394822006472493</v>
-      </c>
-      <c r="AG37" s="7">
-        <f>AG25/AG18</f>
-        <v>0.40009425070688032</v>
-      </c>
-      <c r="AH37" s="7">
-        <f t="shared" ref="AH37:AO37" si="111">AH25/AH18</f>
-        <v>0.34619157241517368</v>
-      </c>
-      <c r="AI37" s="7">
-        <f t="shared" si="111"/>
-        <v>0.36208436396593718</v>
-      </c>
-      <c r="AJ37" s="7">
-        <f t="shared" si="111"/>
-        <v>0.37196943326538784</v>
-      </c>
-      <c r="AK37" s="7">
-        <f t="shared" si="111"/>
-        <v>0.47130380328206334</v>
-      </c>
-      <c r="AL37" s="7">
-        <f t="shared" si="111"/>
-        <v>0.49396040487604048</v>
-      </c>
-      <c r="AM37" s="7">
-        <f t="shared" si="111"/>
-        <v>0.51495413662825751</v>
+        <v>0.77999999999999992</v>
       </c>
       <c r="AN37" s="7">
-        <f t="shared" si="111"/>
-        <v>0.53440704403168826</v>
+        <f t="shared" si="110"/>
+        <v>0.78</v>
       </c>
       <c r="AO37" s="7">
-        <f t="shared" si="111"/>
-        <v>0.55243221511193141</v>
+        <f t="shared" si="110"/>
+        <v>0.78</v>
       </c>
     </row>
     <row r="38" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="7">
-        <f t="shared" ref="K38:N38" si="112">K28/K27</f>
-        <v>7.2632944228274973E-2</v>
-      </c>
-      <c r="L38" s="7">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="7">
-        <f t="shared" si="112"/>
-        <v>0.15001439677512238</v>
-      </c>
-      <c r="N38" s="7">
-        <f t="shared" si="112"/>
-        <v>0.10424155283968368</v>
-      </c>
-      <c r="O38" s="7">
-        <f>O28/O27</f>
-        <v>3.9130434782608699E-2</v>
-      </c>
-      <c r="P38" s="7">
-        <f t="shared" ref="P38:Z38" si="113">P28/P27</f>
-        <v>9.7038285576691544E-2</v>
-      </c>
-      <c r="Q38" s="7">
-        <f t="shared" si="113"/>
-        <v>9.6033402922755737E-2</v>
-      </c>
-      <c r="R38" s="7">
-        <f t="shared" si="113"/>
-        <v>-5.1244509516837483E-2</v>
-      </c>
-      <c r="S38" s="7">
-        <f t="shared" si="113"/>
-        <v>0.23668999087313661</v>
-      </c>
-      <c r="T38" s="7">
-        <f t="shared" si="113"/>
-        <v>0.2418862690707351</v>
-      </c>
-      <c r="U38" s="7">
-        <f t="shared" si="113"/>
-        <v>0.23969940399067116</v>
-      </c>
-      <c r="V38" s="7">
-        <f t="shared" si="113"/>
-        <v>0.24533898305084745</v>
-      </c>
-      <c r="W38" s="7">
-        <f t="shared" si="113"/>
-        <v>0.2376901263212168</v>
-      </c>
-      <c r="X38" s="7">
-        <f t="shared" si="113"/>
-        <v>5.8349609375E-2</v>
-      </c>
-      <c r="Y38" s="7">
-        <f t="shared" si="113"/>
-        <v>0.12527526302911671</v>
-      </c>
-      <c r="Z38" s="7">
-        <f t="shared" si="113"/>
-        <v>0.15216477511559479</v>
-      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7">
-        <f t="shared" ref="AD38:AO38" si="114">AD28/AD27</f>
-        <v>8.6946951353731011E-2</v>
+        <f t="shared" ref="AD38:AF38" si="111">AD25/AD18</f>
+        <v>0.39768642737811977</v>
       </c>
       <c r="AE38" s="7">
-        <f t="shared" si="114"/>
-        <v>0.13978104835786268</v>
+        <f t="shared" si="111"/>
+        <v>0.40411590048121226</v>
       </c>
       <c r="AF38" s="7">
-        <f t="shared" si="114"/>
-        <v>0</v>
+        <f t="shared" si="111"/>
+        <v>0.42394822006472493</v>
       </c>
       <c r="AG38" s="7">
-        <f t="shared" si="114"/>
-        <v>6.5518453427065027E-2</v>
+        <f>AG25/AG18</f>
+        <v>0.40009425070688032</v>
       </c>
       <c r="AH38" s="7">
-        <f t="shared" si="114"/>
-        <v>4.6281851274050961E-2</v>
+        <f t="shared" ref="AH38:AO38" si="112">AH25/AH18</f>
+        <v>0.34619157241517368</v>
       </c>
       <c r="AI38" s="7">
-        <f t="shared" si="114"/>
-        <v>0.15</v>
+        <f t="shared" si="112"/>
+        <v>0.36208436396593718</v>
       </c>
       <c r="AJ38" s="7">
-        <f t="shared" si="114"/>
-        <v>0.15</v>
+        <f t="shared" si="112"/>
+        <v>0.37196943326538784</v>
       </c>
       <c r="AK38" s="7">
-        <f t="shared" si="114"/>
-        <v>0.15</v>
+        <f t="shared" si="112"/>
+        <v>0.4822311022809283</v>
       </c>
       <c r="AL38" s="7">
-        <f t="shared" si="114"/>
-        <v>0.15</v>
+        <f t="shared" si="112"/>
+        <v>0.50905712910246648</v>
       </c>
       <c r="AM38" s="7">
-        <f t="shared" si="114"/>
-        <v>0.15</v>
+        <f t="shared" si="112"/>
+        <v>0.51937876227951529</v>
       </c>
       <c r="AN38" s="7">
-        <f t="shared" si="114"/>
-        <v>0.15</v>
+        <f t="shared" si="112"/>
+        <v>0.53850692651588117</v>
       </c>
       <c r="AO38" s="7">
-        <f t="shared" si="114"/>
-        <v>0.15</v>
+        <f t="shared" si="112"/>
+        <v>0.55826545071003653</v>
       </c>
     </row>
     <row r="39" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
+      <c r="K39" s="7">
+        <f t="shared" ref="K39:N39" si="113">K28/K27</f>
+        <v>7.2632944228274973E-2</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <f t="shared" si="113"/>
+        <v>0.15001439677512238</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" si="113"/>
+        <v>0.10424155283968368</v>
+      </c>
+      <c r="O39" s="7">
+        <f>O28/O27</f>
+        <v>3.9130434782608699E-2</v>
+      </c>
+      <c r="P39" s="7">
+        <f t="shared" ref="P39:Z39" si="114">P28/P27</f>
+        <v>9.7038285576691544E-2</v>
+      </c>
+      <c r="Q39" s="7">
+        <f t="shared" si="114"/>
+        <v>9.6033402922755737E-2</v>
+      </c>
+      <c r="R39" s="7">
+        <f t="shared" si="114"/>
+        <v>-5.1244509516837483E-2</v>
+      </c>
+      <c r="S39" s="7">
+        <f t="shared" si="114"/>
+        <v>0.23668999087313661</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" si="114"/>
+        <v>0.2418862690707351</v>
+      </c>
+      <c r="U39" s="7">
+        <f t="shared" si="114"/>
+        <v>0.23969940399067116</v>
+      </c>
+      <c r="V39" s="7">
+        <f t="shared" si="114"/>
+        <v>0.24533898305084745</v>
+      </c>
+      <c r="W39" s="7">
+        <f t="shared" si="114"/>
+        <v>0.2376901263212168</v>
+      </c>
+      <c r="X39" s="7">
+        <f t="shared" si="114"/>
+        <v>5.8349609375E-2</v>
+      </c>
+      <c r="Y39" s="7">
+        <f t="shared" si="114"/>
+        <v>0.12527526302911671</v>
+      </c>
+      <c r="Z39" s="7">
+        <f t="shared" si="114"/>
+        <v>0.15216477511559479</v>
+      </c>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7">
-        <f>AD21/AC21-1</f>
-        <v>9.2515715810699284E-3</v>
+        <f t="shared" ref="AD39:AO39" si="115">AD28/AD27</f>
+        <v>8.6946951353731011E-2</v>
       </c>
       <c r="AE39" s="7">
-        <f t="shared" ref="AE39:AJ39" si="115">AE21/AD21-1</f>
-        <v>-4.8771888588553303E-2</v>
+        <f t="shared" si="115"/>
+        <v>0.13978104835786268</v>
       </c>
       <c r="AF39" s="7">
         <f t="shared" si="115"/>
-        <v>-5.0901902643933794E-2</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="7">
         <f t="shared" si="115"/>
-        <v>4.7513668315542823E-2</v>
+        <v>6.5518453427065027E-2</v>
       </c>
       <c r="AH39" s="7">
         <f t="shared" si="115"/>
-        <v>9.7551882689201008E-2</v>
+        <v>4.6281851274050961E-2</v>
       </c>
       <c r="AI39" s="7">
         <f t="shared" si="115"/>
-        <v>-6.3066123188405765E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AJ39" s="7">
         <f t="shared" si="115"/>
-        <v>4.5438066465256721E-2</v>
-      </c>
-      <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
-      <c r="AO39" s="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="AK39" s="7">
+        <f t="shared" si="115"/>
+        <v>0.15</v>
+      </c>
+      <c r="AL39" s="7">
+        <f t="shared" si="115"/>
+        <v>0.15</v>
+      </c>
+      <c r="AM39" s="7">
+        <f t="shared" si="115"/>
+        <v>0.15</v>
+      </c>
+      <c r="AN39" s="7">
+        <f t="shared" si="115"/>
+        <v>0.15</v>
+      </c>
+      <c r="AO39" s="7">
+        <f t="shared" si="115"/>
+        <v>0.15</v>
+      </c>
     </row>
     <row r="40" spans="2:44" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -4918,165 +4929,161 @@
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7"/>
-      <c r="AJ40" s="7"/>
+      <c r="AD40" s="7">
+        <f>AD21/AC21-1</f>
+        <v>9.2515715810699284E-3</v>
+      </c>
+      <c r="AE40" s="7">
+        <f t="shared" ref="AE40:AJ40" si="116">AE21/AD21-1</f>
+        <v>-4.8771888588553303E-2</v>
+      </c>
+      <c r="AF40" s="7">
+        <f t="shared" si="116"/>
+        <v>-5.0901902643933794E-2</v>
+      </c>
+      <c r="AG40" s="7">
+        <f t="shared" si="116"/>
+        <v>4.7513668315542823E-2</v>
+      </c>
+      <c r="AH40" s="7">
+        <f t="shared" si="116"/>
+        <v>9.7551882689201008E-2</v>
+      </c>
+      <c r="AI40" s="7">
+        <f t="shared" si="116"/>
+        <v>-6.3066123188405765E-2</v>
+      </c>
+      <c r="AJ40" s="7">
+        <f t="shared" si="116"/>
+        <v>4.5438066465256721E-2</v>
+      </c>
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
     </row>
-    <row r="42" spans="2:44" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
+    <row r="41" spans="2:44" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+    </row>
+    <row r="43" spans="2:44" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N42" s="5">
-        <f t="shared" ref="N42:U42" si="116">N43-N52</f>
+      <c r="N43" s="5">
+        <f t="shared" ref="N43:U43" si="117">N44-N53</f>
         <v>-53957</v>
       </c>
-      <c r="O42" s="5">
-        <f t="shared" si="116"/>
+      <c r="O43" s="5">
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="P42" s="5">
-        <f t="shared" si="116"/>
+      <c r="P43" s="5">
+        <f t="shared" si="117"/>
         <v>-83569</v>
       </c>
-      <c r="Q42" s="5">
-        <f t="shared" si="116"/>
+      <c r="Q43" s="5">
+        <f t="shared" si="117"/>
         <v>-83042</v>
       </c>
-      <c r="R42" s="5">
-        <f t="shared" si="116"/>
+      <c r="R43" s="5">
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="S42" s="5">
-        <f t="shared" si="116"/>
+      <c r="S43" s="5">
+        <f t="shared" si="117"/>
         <v>-76858</v>
       </c>
-      <c r="T42" s="5">
-        <f t="shared" si="116"/>
+      <c r="T43" s="5">
+        <f t="shared" si="117"/>
         <v>-80099</v>
       </c>
-      <c r="U42" s="5">
-        <f t="shared" si="116"/>
+      <c r="U43" s="5">
+        <f t="shared" si="117"/>
         <v>-78076</v>
       </c>
-      <c r="V42" s="5">
-        <f>+V43-V52</f>
+      <c r="V43" s="5">
+        <f>+V44-V53</f>
         <v>-76208</v>
       </c>
-      <c r="W42" s="5">
-        <f>+W43-W52</f>
+      <c r="W43" s="5">
+        <f>+W44-W53</f>
         <v>-73604</v>
-      </c>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AH42" s="3">
-        <f>R42</f>
-        <v>0</v>
-      </c>
-      <c r="AI42" s="3">
-        <f>AH42+AI29</f>
-        <v>16299.897499999999</v>
-      </c>
-      <c r="AJ42" s="3">
-        <f t="shared" ref="AJ42:AO42" si="117">AI42+AJ29</f>
-        <v>34586.519103749997</v>
-      </c>
-      <c r="AK42" s="3">
-        <f t="shared" si="117"/>
-        <v>59944.522545881875</v>
-      </c>
-      <c r="AL42" s="3">
-        <f t="shared" si="117"/>
-        <v>89087.152023969378</v>
-      </c>
-      <c r="AM42" s="3">
-        <f t="shared" si="117"/>
-        <v>122380.92754376109</v>
-      </c>
-      <c r="AN42" s="3">
-        <f t="shared" si="117"/>
-        <v>160225.70742479275</v>
-      </c>
-      <c r="AO42" s="3">
-        <f t="shared" si="117"/>
-        <v>203057.69304981228</v>
-      </c>
-      <c r="AQ42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR42" s="14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="43" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5">
-        <f>21383+519</f>
-        <v>21902</v>
-      </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5">
-        <f>6813+537</f>
-        <v>7350</v>
-      </c>
-      <c r="Q43" s="5">
-        <f>8219+550</f>
-        <v>8769</v>
-      </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5">
-        <f>11613+470</f>
-        <v>12083</v>
-      </c>
-      <c r="T43" s="5">
-        <f>8244+446</f>
-        <v>8690</v>
-      </c>
-      <c r="U43" s="5">
-        <f>9481+423</f>
-        <v>9904</v>
-      </c>
-      <c r="V43" s="5">
-        <f>10454+207</f>
-        <v>10661</v>
-      </c>
-      <c r="W43" s="5">
-        <f>10616+295</f>
-        <v>10911</v>
       </c>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
+      <c r="AH43" s="3">
+        <f>R43</f>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="3">
+        <f>AH43+AI29</f>
+        <v>16299.897499999999</v>
+      </c>
+      <c r="AJ43" s="3">
+        <f t="shared" ref="AJ43:AO43" si="118">AI43+AJ29</f>
+        <v>34586.519103749997</v>
+      </c>
+      <c r="AK43" s="3">
+        <f t="shared" si="118"/>
+        <v>61466.744025881868</v>
+      </c>
+      <c r="AL43" s="3">
+        <f t="shared" si="118"/>
+        <v>93141.588935949374</v>
+      </c>
+      <c r="AM43" s="3">
+        <f t="shared" si="118"/>
+        <v>127306.51620597493</v>
+      </c>
+      <c r="AN43" s="3">
+        <f t="shared" si="118"/>
+        <v>166105.15464040081</v>
+      </c>
+      <c r="AO43" s="3">
+        <f t="shared" si="118"/>
+        <v>210527.49068337367</v>
+      </c>
       <c r="AQ43" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AR43" s="14">
         <v>0.01</v>
@@ -5084,7 +5091,7 @@
     </row>
     <row r="44" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -5098,30 +5105,38 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5">
-        <v>5953</v>
+        <f>21383+519</f>
+        <v>21902</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5">
-        <v>6197</v>
+        <f>6813+537</f>
+        <v>7350</v>
       </c>
       <c r="Q44" s="5">
-        <v>6213</v>
+        <f>8219+550</f>
+        <v>8769</v>
       </c>
       <c r="R44" s="5"/>
       <c r="S44" s="5">
-        <v>6519</v>
+        <f>11613+470</f>
+        <v>12083</v>
       </c>
       <c r="T44" s="5">
-        <v>6804</v>
+        <f>8244+446</f>
+        <v>8690</v>
       </c>
       <c r="U44" s="5">
-        <v>7297</v>
+        <f>9481+423</f>
+        <v>9904</v>
       </c>
       <c r="V44" s="5">
-        <v>7874</v>
+        <f>10454+207</f>
+        <v>10661</v>
       </c>
       <c r="W44" s="5">
-        <v>8021</v>
+        <f>10616+295</f>
+        <v>10911</v>
       </c>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
@@ -5133,15 +5148,15 @@
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AQ44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AR44" s="14">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="45" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -5155,30 +5170,30 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5">
-        <v>3778</v>
+        <v>5953</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5">
-        <v>4014</v>
+        <v>6197</v>
       </c>
       <c r="Q45" s="5">
-        <v>3714</v>
+        <v>6213</v>
       </c>
       <c r="R45" s="5"/>
       <c r="S45" s="5">
-        <v>3564</v>
+        <v>6519</v>
       </c>
       <c r="T45" s="5">
-        <v>3795</v>
+        <v>6804</v>
       </c>
       <c r="U45" s="5">
-        <v>3862</v>
+        <v>7297</v>
       </c>
       <c r="V45" s="5">
-        <v>4019</v>
+        <v>7874</v>
       </c>
       <c r="W45" s="5">
-        <v>4140</v>
+        <v>8021</v>
       </c>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
@@ -5190,16 +5205,15 @@
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AQ45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR45" s="3">
-        <f>NPV(AR44,AK29:DZ29)+N42</f>
-        <v>723602.66275062435</v>
+        <v>85</v>
+      </c>
+      <c r="AR45" s="14">
+        <v>0.06</v>
       </c>
     </row>
     <row r="46" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -5213,30 +5227,30 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5">
-        <v>9716</v>
+        <v>3778</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5">
-        <v>14351</v>
+        <v>4014</v>
       </c>
       <c r="Q46" s="5">
-        <v>16345</v>
+        <v>3714</v>
       </c>
       <c r="R46" s="5"/>
       <c r="S46" s="5">
-        <v>17644</v>
+        <v>3564</v>
       </c>
       <c r="T46" s="5">
-        <v>18009</v>
+        <v>3795</v>
       </c>
       <c r="U46" s="5">
-        <v>19117</v>
+        <v>3862</v>
       </c>
       <c r="V46" s="5">
-        <v>21536</v>
+        <v>4019</v>
       </c>
       <c r="W46" s="5">
-        <v>23094</v>
+        <v>4140</v>
       </c>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
@@ -5248,16 +5262,16 @@
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
       <c r="AQ46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR46" s="15">
-        <f>AR45/O31</f>
-        <v>263.41560347674715</v>
+        <v>86</v>
+      </c>
+      <c r="AR46" s="3">
+        <f>NPV(AR45,AK29:DZ29)+N43</f>
+        <v>753647.88631555147</v>
       </c>
     </row>
     <row r="47" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -5271,38 +5285,30 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5">
-        <f>1440+43811</f>
-        <v>45251</v>
+        <v>9716</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5">
-        <f>11593+61513</f>
-        <v>73106</v>
+        <v>14351</v>
       </c>
       <c r="Q47" s="5">
-        <f>10707+61499</f>
-        <v>72206</v>
+        <v>16345</v>
       </c>
       <c r="R47" s="5"/>
       <c r="S47" s="5">
-        <f>9074+62206</f>
-        <v>71280</v>
+        <v>17644</v>
       </c>
       <c r="T47" s="5">
-        <f>8378+62231</f>
-        <v>70609</v>
+        <v>18009</v>
       </c>
       <c r="U47" s="5">
-        <f>7629+62222</f>
-        <v>69851</v>
+        <v>19117</v>
       </c>
       <c r="V47" s="5">
-        <f>6890+62230</f>
-        <v>69120</v>
+        <v>21536</v>
       </c>
       <c r="W47" s="5">
-        <f>62249+6270</f>
-        <v>68519</v>
+        <v>23094</v>
       </c>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
@@ -5314,16 +5320,16 @@
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AQ47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR47" s="14">
-        <f>AR46/Main!G2-1</f>
-        <v>7.3194554804429268E-2</v>
+        <v>88</v>
+      </c>
+      <c r="AR47" s="15">
+        <f>AR46/O31</f>
+        <v>274.35307110140207</v>
       </c>
     </row>
     <row r="48" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -5337,30 +5343,38 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5">
-        <v>12782</v>
+        <f>1440+43811</f>
+        <v>45251</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5">
-        <v>12091</v>
+        <f>11593+61513</f>
+        <v>73106</v>
       </c>
       <c r="Q48" s="5">
-        <v>12153</v>
+        <f>10707+61499</f>
+        <v>72206</v>
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5">
-        <v>12243</v>
+        <f>9074+62206</f>
+        <v>71280</v>
       </c>
       <c r="T48" s="5">
-        <v>12758</v>
+        <f>8378+62231</f>
+        <v>70609</v>
       </c>
       <c r="U48" s="5">
-        <v>12688</v>
+        <f>7629+62222</f>
+        <v>69851</v>
       </c>
       <c r="V48" s="5">
-        <v>12273</v>
+        <f>6890+62230</f>
+        <v>69120</v>
       </c>
       <c r="W48" s="5">
-        <v>12219</v>
+        <f>62249+6270</f>
+        <v>68519</v>
       </c>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
@@ -5371,10 +5385,17 @@
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
+      <c r="AQ48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR48" s="14">
+        <f>AR47/Main!G2-1</f>
+        <v>0.11775543329151383</v>
+      </c>
     </row>
     <row r="49" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -5388,30 +5409,30 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5">
-        <v>9915</v>
+        <v>12782</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5">
-        <v>11360</v>
+        <v>12091</v>
       </c>
       <c r="Q49" s="5">
-        <v>12220</v>
+        <v>12153</v>
       </c>
       <c r="R49" s="5"/>
       <c r="S49" s="5">
-        <v>13329</v>
+        <v>12243</v>
       </c>
       <c r="T49" s="5">
-        <v>13659</v>
+        <v>12758</v>
       </c>
       <c r="U49" s="5">
-        <v>14363</v>
+        <v>12688</v>
       </c>
       <c r="V49" s="5">
-        <v>15493</v>
+        <v>12273</v>
       </c>
       <c r="W49" s="5">
-        <v>17310</v>
+        <v>12219</v>
       </c>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
@@ -5425,7 +5446,7 @@
     </row>
     <row r="50" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -5439,44 +5460,30 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5">
-        <f t="shared" ref="N50:W50" si="118">SUM(N43:N49)</f>
-        <v>109297</v>
-      </c>
-      <c r="O50" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
+        <v>9915</v>
+      </c>
+      <c r="O50" s="5"/>
       <c r="P50" s="5">
-        <f t="shared" si="118"/>
-        <v>128469</v>
+        <v>11360</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="118"/>
-        <v>131620</v>
-      </c>
-      <c r="R50" s="5">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
+        <v>12220</v>
+      </c>
+      <c r="R50" s="5"/>
       <c r="S50" s="5">
-        <f t="shared" si="118"/>
-        <v>136662</v>
+        <v>13329</v>
       </c>
       <c r="T50" s="5">
-        <f t="shared" si="118"/>
-        <v>134324</v>
+        <v>13659</v>
       </c>
       <c r="U50" s="5">
-        <f t="shared" si="118"/>
-        <v>137082</v>
+        <v>14363</v>
       </c>
       <c r="V50" s="5">
-        <f t="shared" si="118"/>
-        <v>140976</v>
+        <v>15493</v>
       </c>
       <c r="W50" s="5">
-        <f t="shared" si="118"/>
-        <v>144214</v>
+        <v>17310</v>
       </c>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
@@ -5488,68 +5495,74 @@
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
     </row>
-    <row r="52" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5">
-        <f>3749+72110</f>
-        <v>75859</v>
-      </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5">
-        <f>81173+9746</f>
-        <v>90919</v>
-      </c>
-      <c r="Q52" s="5">
-        <f>5415+86396</f>
-        <v>91811</v>
-      </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5">
-        <f>84442+4499</f>
-        <v>88941</v>
-      </c>
-      <c r="T52" s="5">
-        <f>82468+6321</f>
-        <v>88789</v>
-      </c>
-      <c r="U52" s="5">
-        <f>5510+82470</f>
-        <v>87980</v>
-      </c>
-      <c r="V52" s="5">
-        <f>10605+76264</f>
-        <v>86869</v>
-      </c>
-      <c r="W52" s="5">
-        <f>9201+75314</f>
-        <v>84515</v>
-      </c>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
+    <row r="51" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5">
+        <f t="shared" ref="N51:W51" si="119">SUM(N44:N50)</f>
+        <v>109297</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <f t="shared" si="119"/>
+        <v>128469</v>
+      </c>
+      <c r="Q51" s="5">
+        <f t="shared" si="119"/>
+        <v>131620</v>
+      </c>
+      <c r="R51" s="5">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="5">
+        <f t="shared" si="119"/>
+        <v>136662</v>
+      </c>
+      <c r="T51" s="5">
+        <f t="shared" si="119"/>
+        <v>134324</v>
+      </c>
+      <c r="U51" s="5">
+        <f t="shared" si="119"/>
+        <v>137082</v>
+      </c>
+      <c r="V51" s="5">
+        <f t="shared" si="119"/>
+        <v>140976</v>
+      </c>
+      <c r="W51" s="5">
+        <f t="shared" si="119"/>
+        <v>144214</v>
+      </c>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
     </row>
     <row r="53" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -5563,30 +5576,38 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5">
-        <v>1317</v>
+        <f>3749+72110</f>
+        <v>75859</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5">
-        <v>1647</v>
+        <f>81173+9746</f>
+        <v>90919</v>
       </c>
       <c r="Q53" s="5">
-        <v>1610</v>
+        <f>5415+86396</f>
+        <v>91811</v>
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="5">
-        <v>1034</v>
+        <f>84442+4499</f>
+        <v>88941</v>
       </c>
       <c r="T53" s="5">
-        <v>1107</v>
+        <f>82468+6321</f>
+        <v>88789</v>
       </c>
       <c r="U53" s="5">
-        <v>1658</v>
+        <f>5510+82470</f>
+        <v>87980</v>
       </c>
       <c r="V53" s="5">
-        <v>2357</v>
+        <f>10605+76264</f>
+        <v>86869</v>
       </c>
       <c r="W53" s="5">
-        <v>2207</v>
+        <f>9201+75314</f>
+        <v>84515</v>
       </c>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
@@ -5600,7 +5621,7 @@
     </row>
     <row r="54" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -5614,30 +5635,30 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5">
-        <v>1944</v>
+        <v>1317</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5">
-        <v>1780</v>
+        <v>1647</v>
       </c>
       <c r="Q54" s="5">
-        <v>1736</v>
+        <v>1610</v>
       </c>
       <c r="R54" s="5"/>
       <c r="S54" s="5">
-        <v>1818</v>
+        <v>1034</v>
       </c>
       <c r="T54" s="5">
-        <v>1706</v>
+        <v>1107</v>
       </c>
       <c r="U54" s="5">
-        <v>1796</v>
+        <v>1658</v>
       </c>
       <c r="V54" s="5">
-        <v>1916</v>
+        <v>2357</v>
       </c>
       <c r="W54" s="5">
-        <v>1772</v>
+        <v>2207</v>
       </c>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
@@ -5651,7 +5672,7 @@
     </row>
     <row r="55" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -5665,30 +5686,30 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5">
-        <v>8357</v>
+        <v>1944</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5">
-        <v>8705</v>
+        <v>1780</v>
       </c>
       <c r="Q55" s="5">
-        <v>8598</v>
+        <v>1736</v>
       </c>
       <c r="R55" s="5"/>
       <c r="S55" s="5">
-        <v>11120</v>
+        <v>1818</v>
       </c>
       <c r="T55" s="5">
-        <v>8878</v>
+        <v>1706</v>
       </c>
       <c r="U55" s="5">
-        <v>8931</v>
+        <v>1796</v>
       </c>
       <c r="V55" s="5">
-        <v>9313</v>
+        <v>1916</v>
       </c>
       <c r="W55" s="5">
-        <v>11455</v>
+        <v>1772</v>
       </c>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
@@ -5702,7 +5723,7 @@
     </row>
     <row r="56" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -5716,30 +5737,30 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5">
-        <v>4144</v>
+        <v>8357</v>
       </c>
       <c r="O56" s="5"/>
       <c r="P56" s="5">
-        <v>5228</v>
+        <v>8705</v>
       </c>
       <c r="Q56" s="5">
-        <v>5521</v>
+        <v>8598</v>
       </c>
       <c r="R56" s="5"/>
       <c r="S56" s="5">
-        <v>6886</v>
+        <v>11120</v>
       </c>
       <c r="T56" s="5">
-        <v>6395</v>
+        <v>8878</v>
       </c>
       <c r="U56" s="5">
-        <v>6990</v>
+        <v>8931</v>
       </c>
       <c r="V56" s="5">
-        <v>7353</v>
+        <v>9313</v>
       </c>
       <c r="W56" s="5">
-        <v>7410</v>
+        <v>11455</v>
       </c>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
@@ -5753,7 +5774,7 @@
     </row>
     <row r="57" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -5767,38 +5788,30 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5">
-        <f>12210+6031</f>
-        <v>18241</v>
+        <v>4144</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="5">
-        <f>11128+7165</f>
-        <v>18293</v>
+        <v>5228</v>
       </c>
       <c r="Q57" s="5">
-        <f>11335+6814</f>
-        <v>18149</v>
+        <v>5521</v>
       </c>
       <c r="R57" s="5"/>
       <c r="S57" s="5">
-        <f>5281+11201</f>
-        <v>16482</v>
+        <v>6886</v>
       </c>
       <c r="T57" s="5">
-        <f>10046+5244</f>
-        <v>15290</v>
+        <v>6395</v>
       </c>
       <c r="U57" s="5">
-        <f>10451+4483</f>
-        <v>14934</v>
+        <v>6990</v>
       </c>
       <c r="V57" s="5">
-        <f>10817+3692</f>
-        <v>14509</v>
+        <v>7353</v>
       </c>
       <c r="W57" s="5">
-        <f>3442+11038</f>
-        <v>14480</v>
+        <v>7410</v>
       </c>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
@@ -5812,7 +5825,7 @@
     </row>
     <row r="58" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -5826,30 +5839,38 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5">
-        <v>5203</v>
+        <f>12210+6031</f>
+        <v>18241</v>
       </c>
       <c r="O58" s="5"/>
       <c r="P58" s="5">
-        <v>5673</v>
+        <f>11128+7165</f>
+        <v>18293</v>
       </c>
       <c r="Q58" s="5">
-        <v>6107</v>
+        <f>11335+6814</f>
+        <v>18149</v>
       </c>
       <c r="R58" s="5"/>
       <c r="S58" s="5">
-        <v>7540</v>
+        <f>5281+11201</f>
+        <v>16482</v>
       </c>
       <c r="T58" s="5">
-        <v>7781</v>
+        <f>10046+5244</f>
+        <v>15290</v>
       </c>
       <c r="U58" s="5">
-        <v>8611</v>
+        <f>10451+4483</f>
+        <v>14934</v>
       </c>
       <c r="V58" s="5">
-        <v>9420</v>
+        <f>10817+3692</f>
+        <v>14509</v>
       </c>
       <c r="W58" s="5">
-        <v>11106</v>
+        <f>3442+11038</f>
+        <v>14480</v>
       </c>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
@@ -5863,7 +5884,7 @@
     </row>
     <row r="59" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -5877,31 +5898,30 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5">
-        <v>-5768</v>
+        <v>5203</v>
       </c>
       <c r="O59" s="5"/>
       <c r="P59" s="5">
-        <f>-4246+470</f>
-        <v>-3776</v>
+        <v>5673</v>
       </c>
       <c r="Q59" s="5">
-        <v>-1912</v>
+        <v>6107</v>
       </c>
       <c r="R59" s="5"/>
       <c r="S59" s="5">
-        <v>2841</v>
+        <v>7540</v>
       </c>
       <c r="T59" s="5">
-        <v>4378</v>
+        <v>7781</v>
       </c>
       <c r="U59" s="5">
-        <v>6182</v>
+        <v>8611</v>
       </c>
       <c r="V59" s="5">
-        <v>9239</v>
+        <v>9420</v>
       </c>
       <c r="W59" s="5">
-        <v>11269</v>
+        <v>11106</v>
       </c>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
@@ -5915,7 +5935,7 @@
     </row>
     <row r="60" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -5929,41 +5949,31 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5">
-        <f>SUM(N52:N59)</f>
-        <v>109297</v>
-      </c>
-      <c r="O60" s="5">
-        <f>SUM(O52:O59)</f>
-        <v>0</v>
-      </c>
+        <v>-5768</v>
+      </c>
+      <c r="O60" s="5"/>
       <c r="P60" s="5">
-        <f>SUM(P52:P59)</f>
-        <v>128469</v>
+        <f>-4246+470</f>
+        <v>-3776</v>
       </c>
       <c r="Q60" s="5">
-        <f>SUM(Q52:Q59)</f>
-        <v>131620</v>
+        <v>-1912</v>
       </c>
       <c r="R60" s="5"/>
       <c r="S60" s="5">
-        <f>SUM(S52:S59)</f>
-        <v>136662</v>
+        <v>2841</v>
       </c>
       <c r="T60" s="5">
-        <f>SUM(T52:T59)</f>
-        <v>134324</v>
+        <v>4378</v>
       </c>
       <c r="U60" s="5">
-        <f>SUM(U52:U59)</f>
-        <v>137082</v>
+        <v>6182</v>
       </c>
       <c r="V60" s="5">
-        <f>SUM(V52:V59)</f>
-        <v>140976</v>
+        <v>9239</v>
       </c>
       <c r="W60" s="5">
-        <f>SUM(W52:W59)</f>
-        <v>144214</v>
+        <v>11269</v>
       </c>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
@@ -5975,62 +5985,71 @@
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
     </row>
-    <row r="62" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5">
-        <f t="shared" ref="S62:V62" si="119">+S29</f>
-        <v>2509</v>
-      </c>
-      <c r="T62" s="5">
-        <f t="shared" si="119"/>
-        <v>2733</v>
-      </c>
-      <c r="U62" s="5">
-        <f t="shared" si="119"/>
-        <v>2934</v>
-      </c>
-      <c r="V62" s="5">
-        <f t="shared" si="119"/>
-        <v>3562</v>
-      </c>
-      <c r="W62" s="5">
-        <f>+W29</f>
-        <v>2957</v>
-      </c>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5">
-        <f>+AG29</f>
-        <v>13293</v>
-      </c>
+    <row r="61" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5">
+        <f>SUM(N53:N60)</f>
+        <v>109297</v>
+      </c>
+      <c r="O61" s="5">
+        <f>SUM(O53:O60)</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="5">
+        <f>SUM(P53:P60)</f>
+        <v>128469</v>
+      </c>
+      <c r="Q61" s="5">
+        <f>SUM(Q53:Q60)</f>
+        <v>131620</v>
+      </c>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5">
+        <f>SUM(S53:S60)</f>
+        <v>136662</v>
+      </c>
+      <c r="T61" s="5">
+        <f>SUM(T53:T60)</f>
+        <v>134324</v>
+      </c>
+      <c r="U61" s="5">
+        <f>SUM(U53:U60)</f>
+        <v>137082</v>
+      </c>
+      <c r="V61" s="5">
+        <f>SUM(V53:V60)</f>
+        <v>140976</v>
+      </c>
+      <c r="W61" s="5">
+        <f>SUM(W53:W60)</f>
+        <v>144214</v>
+      </c>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
     </row>
     <row r="63" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -6049,22 +6068,24 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5">
-        <v>2420</v>
+        <f t="shared" ref="S63:V63" si="120">+S29</f>
+        <v>2509</v>
       </c>
       <c r="T63" s="5">
-        <f>4923-S63</f>
-        <v>2503</v>
+        <f t="shared" si="120"/>
+        <v>2733</v>
       </c>
       <c r="U63" s="5">
-        <f>7323-T63-S63</f>
-        <v>2400</v>
+        <f t="shared" si="120"/>
+        <v>2934</v>
       </c>
       <c r="V63" s="5">
-        <f>10467-U63-T63-S63</f>
-        <v>3144</v>
+        <f t="shared" si="120"/>
+        <v>3562</v>
       </c>
       <c r="W63" s="5">
-        <v>2929</v>
+        <f>+W29</f>
+        <v>2957</v>
       </c>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
@@ -6075,12 +6096,13 @@
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5">
-        <v>6717</v>
+        <f>+AG29</f>
+        <v>13293</v>
       </c>
     </row>
     <row r="64" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -6099,22 +6121,22 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5">
-        <v>712</v>
+        <v>2420</v>
       </c>
       <c r="T64" s="5">
-        <f>1510-S64</f>
-        <v>798</v>
+        <f>4923-S64</f>
+        <v>2503</v>
       </c>
       <c r="U64" s="5">
-        <f>2318-T64-S64</f>
-        <v>808</v>
+        <f>7323-T64-S64</f>
+        <v>2400</v>
       </c>
       <c r="V64" s="5">
-        <f>3129-U64-T64-S64</f>
-        <v>811</v>
+        <f>10467-U64-T64-S64</f>
+        <v>3144</v>
       </c>
       <c r="W64" s="5">
-        <v>804</v>
+        <v>2929</v>
       </c>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
@@ -6125,12 +6147,12 @@
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5">
-        <v>1972</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="65" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -6149,22 +6171,22 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5">
-        <v>763</v>
+        <v>712</v>
       </c>
       <c r="T65" s="5">
-        <f>1518-S65</f>
-        <v>755</v>
+        <f>1510-S65</f>
+        <v>798</v>
       </c>
       <c r="U65" s="5">
-        <f>2267-T65-S65</f>
-        <v>749</v>
+        <f>2318-T65-S65</f>
+        <v>808</v>
       </c>
       <c r="V65" s="5">
-        <f>3010-U65-T65-S65</f>
-        <v>743</v>
+        <f>3129-U65-T65-S65</f>
+        <v>811</v>
       </c>
       <c r="W65" s="5">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
@@ -6175,12 +6197,12 @@
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5">
-        <v>1150</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="66" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -6199,22 +6221,22 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5">
-        <v>-517</v>
+        <v>763</v>
       </c>
       <c r="T66" s="5">
-        <f>-1049-S66</f>
-        <v>-532</v>
+        <f>1518-S66</f>
+        <v>755</v>
       </c>
       <c r="U66" s="5">
-        <f>-1755-T66-S66</f>
-        <v>-706</v>
+        <f>2267-T66-S66</f>
+        <v>749</v>
       </c>
       <c r="V66" s="5">
-        <f>-2139-U66-T66-S66</f>
-        <v>-384</v>
+        <f>3010-U66-T66-S66</f>
+        <v>743</v>
       </c>
       <c r="W66" s="5">
-        <v>-151</v>
+        <v>624</v>
       </c>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
@@ -6225,12 +6247,12 @@
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5">
-        <v>-1146</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="67" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -6249,22 +6271,22 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5">
-        <v>849</v>
+        <v>-517</v>
       </c>
       <c r="T67" s="5">
-        <f>1878-S67</f>
-        <v>1029</v>
+        <f>-1049-S67</f>
+        <v>-532</v>
       </c>
       <c r="U67" s="5">
-        <f>2927-T67-S67</f>
-        <v>1049</v>
+        <f>-1755-T67-S67</f>
+        <v>-706</v>
       </c>
       <c r="V67" s="5">
-        <f>3974-U67-T67-S67</f>
-        <v>1047</v>
+        <f>-2139-U67-T67-S67</f>
+        <v>-384</v>
       </c>
       <c r="W67" s="5">
-        <v>1007</v>
+        <v>-151</v>
       </c>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
@@ -6275,12 +6297,12 @@
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5">
-        <v>2613</v>
+        <v>-1146</v>
       </c>
     </row>
     <row r="68" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -6299,22 +6321,22 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5">
-        <v>169</v>
+        <v>849</v>
       </c>
       <c r="T68" s="5">
-        <f>331-S68</f>
-        <v>162</v>
+        <f>1878-S68</f>
+        <v>1029</v>
       </c>
       <c r="U68" s="5">
-        <f>631-T68-S68</f>
-        <v>300</v>
+        <f>2927-T68-S68</f>
+        <v>1049</v>
       </c>
       <c r="V68" s="5">
-        <f>720-U68-T68-S68</f>
-        <v>89</v>
+        <f>3974-U68-T68-S68</f>
+        <v>1047</v>
       </c>
       <c r="W68" s="5">
-        <v>130</v>
+        <v>1007</v>
       </c>
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
@@ -6325,12 +6347,12 @@
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5">
-        <v>220</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="69" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -6349,24 +6371,22 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5">
-        <f>380+269-457+69+2317</f>
-        <v>2578</v>
+        <v>169</v>
       </c>
       <c r="T69" s="5">
-        <f>145+301-1048-1541+149-S69</f>
-        <v>-4572</v>
+        <f>331-S69</f>
+        <v>162</v>
       </c>
       <c r="U69" s="5">
-        <f>-409+457-682-788+303-T69-S69</f>
-        <v>875</v>
+        <f>631-T69-S69</f>
+        <v>300</v>
       </c>
       <c r="V69" s="5">
-        <f>-965+542-594-127+656-U69-T69-S69</f>
-        <v>631</v>
+        <f>720-U69-T69-S69</f>
+        <v>89</v>
       </c>
       <c r="W69" s="5">
-        <f>-81+367-531+24+2305</f>
-        <v>2084</v>
+        <v>130</v>
       </c>
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
@@ -6377,13 +6397,12 @@
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5">
-        <f>-874+11-733-398+7</f>
-        <v>-1987</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -6402,24 +6421,24 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5">
-        <f t="shared" ref="S70:V70" si="120">SUM(S63:S69)</f>
-        <v>6974</v>
+        <f>380+269-457+69+2317</f>
+        <v>2578</v>
       </c>
       <c r="T70" s="5">
-        <f t="shared" si="120"/>
-        <v>143</v>
+        <f>145+301-1048-1541+149-S70</f>
+        <v>-4572</v>
       </c>
       <c r="U70" s="5">
-        <f t="shared" si="120"/>
-        <v>5475</v>
+        <f>-409+457-682-788+303-T70-S70</f>
+        <v>875</v>
       </c>
       <c r="V70" s="5">
-        <f t="shared" si="120"/>
-        <v>6081</v>
+        <f>-965+542-594-127+656-U70-T70-S70</f>
+        <v>631</v>
       </c>
       <c r="W70" s="5">
-        <f>SUM(W63:W69)</f>
-        <v>7427</v>
+        <f>-81+367-531+24+2305</f>
+        <v>2084</v>
       </c>
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
@@ -6427,74 +6446,73 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
       <c r="AD70" s="5"/>
-      <c r="AE70" s="5">
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5">
+        <f>-874+11-733-398+7</f>
+        <v>-1987</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5">
+        <f t="shared" ref="S71:V71" si="121">SUM(S64:S70)</f>
+        <v>6974</v>
+      </c>
+      <c r="T71" s="5">
+        <f t="shared" si="121"/>
+        <v>143</v>
+      </c>
+      <c r="U71" s="5">
+        <f t="shared" si="121"/>
+        <v>5475</v>
+      </c>
+      <c r="V71" s="5">
+        <f t="shared" si="121"/>
+        <v>6081</v>
+      </c>
+      <c r="W71" s="5">
+        <f>SUM(W64:W70)</f>
+        <v>7427</v>
+      </c>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5">
         <v>13139</v>
       </c>
-      <c r="AF70" s="5">
+      <c r="AF71" s="5">
         <v>15887</v>
       </c>
-      <c r="AG70" s="5">
-        <f>SUM(AG63:AG69)</f>
+      <c r="AG71" s="5">
+        <f>SUM(AG64:AG70)</f>
         <v>9539</v>
-      </c>
-    </row>
-    <row r="72" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5">
-        <v>-1314</v>
-      </c>
-      <c r="T72" s="5">
-        <f>-2394-S72</f>
-        <v>-1080</v>
-      </c>
-      <c r="U72" s="5">
-        <f>-4068-T72-S72</f>
-        <v>-1674</v>
-      </c>
-      <c r="V72" s="5">
-        <f>-6866-U72-T72-S72</f>
-        <v>-2798</v>
-      </c>
-      <c r="W72" s="5">
-        <v>-2303</v>
-      </c>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5">
-        <v>-1564</v>
-      </c>
-      <c r="AF72" s="5">
-        <v>-2135</v>
-      </c>
-      <c r="AG72" s="5">
-        <v>-4511</v>
       </c>
     </row>
     <row r="73" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -6513,22 +6531,22 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5">
-        <v>0</v>
+        <v>-1314</v>
       </c>
       <c r="T73" s="5">
-        <f>-59-S73</f>
-        <v>-59</v>
+        <f>-2394-S73</f>
+        <v>-1080</v>
       </c>
       <c r="U73" s="5">
-        <f>-59-T73-S73</f>
-        <v>0</v>
+        <f>-4068-T73-S73</f>
+        <v>-1674</v>
       </c>
       <c r="V73" s="5">
-        <f>-63-U73-T73-S73</f>
-        <v>-4</v>
+        <f>-6866-U73-T73-S73</f>
+        <v>-2798</v>
       </c>
       <c r="W73" s="5">
-        <v>0</v>
+        <v>-2303</v>
       </c>
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
@@ -6536,15 +6554,19 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
       <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="5"/>
+      <c r="AE73" s="5">
+        <v>-1564</v>
+      </c>
+      <c r="AF73" s="5">
+        <v>-2135</v>
+      </c>
       <c r="AG73" s="5">
-        <v>-148</v>
+        <v>-4511</v>
       </c>
     </row>
     <row r="74" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -6563,24 +6585,22 @@
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5">
-        <f>-333+85</f>
-        <v>-248</v>
+        <v>0</v>
       </c>
       <c r="T74" s="5">
-        <f>-515+157-S74</f>
-        <v>-110</v>
+        <f>-59-S74</f>
+        <v>-59</v>
       </c>
       <c r="U74" s="5">
-        <f>-674+207-T74-S74</f>
-        <v>-109</v>
+        <f>-59-T74-S74</f>
+        <v>0</v>
       </c>
       <c r="V74" s="5">
-        <f>-1003+572-U74-T74-S74</f>
-        <v>36</v>
+        <f>-63-U74-T74-S74</f>
+        <v>-4</v>
       </c>
       <c r="W74" s="5">
-        <f>15-477</f>
-        <v>-462</v>
+        <v>0</v>
       </c>
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
@@ -6590,11 +6610,13 @@
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
-      <c r="AG74" s="5"/>
+      <c r="AG74" s="5">
+        <v>-148</v>
+      </c>
     </row>
     <row r="75" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -6613,24 +6635,24 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5">
-        <f>SUM(S72:S74)</f>
-        <v>-1562</v>
+        <f>-333+85</f>
+        <v>-248</v>
       </c>
       <c r="T75" s="5">
-        <f>SUM(T72:T74)</f>
-        <v>-1249</v>
+        <f>-515+157-S75</f>
+        <v>-110</v>
       </c>
       <c r="U75" s="5">
-        <f>SUM(U72:U74)</f>
-        <v>-1783</v>
+        <f>-674+207-T75-S75</f>
+        <v>-109</v>
       </c>
       <c r="V75" s="5">
-        <f>SUM(V72:V74)</f>
-        <v>-2766</v>
+        <f>-1003+572-U75-T75-S75</f>
+        <v>36</v>
       </c>
       <c r="W75" s="5">
-        <f>SUM(W72:W74)</f>
-        <v>-2765</v>
+        <f>15-477</f>
+        <v>-462</v>
       </c>
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
@@ -6643,6 +6665,9 @@
       <c r="AG75" s="5"/>
     </row>
     <row r="76" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -6659,11 +6684,26 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
+      <c r="S76" s="5">
+        <f>SUM(S73:S75)</f>
+        <v>-1562</v>
+      </c>
+      <c r="T76" s="5">
+        <f>SUM(T73:T75)</f>
+        <v>-1249</v>
+      </c>
+      <c r="U76" s="5">
+        <f>SUM(U73:U75)</f>
+        <v>-1783</v>
+      </c>
+      <c r="V76" s="5">
+        <f>SUM(V73:V75)</f>
+        <v>-2766</v>
+      </c>
+      <c r="W76" s="5">
+        <f>SUM(W73:W75)</f>
+        <v>-2765</v>
+      </c>
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
@@ -6675,9 +6715,6 @@
       <c r="AG76" s="5"/>
     </row>
     <row r="77" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -6707,12 +6744,12 @@
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
-      <c r="AG77" s="5">
-        <f>-10272+19788+6363</f>
-        <v>15879</v>
-      </c>
+      <c r="AG77" s="5"/>
     </row>
     <row r="78" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -6743,176 +6780,211 @@
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5">
-        <f>SUM(AG72:AG77)</f>
+        <f>-10272+19788+6363</f>
+        <v>15879</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="5">
+        <f>SUM(AG73:AG78)</f>
         <v>11220</v>
       </c>
     </row>
-    <row r="79" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S79" s="5">
+      <c r="S80" s="5">
         <f>-150+308-1060</f>
         <v>-902</v>
       </c>
-      <c r="T79" s="5">
-        <f>-600+426-1733-S79</f>
+      <c r="T80" s="5">
+        <f>-600+426-1733-S80</f>
         <v>-1005</v>
       </c>
-      <c r="U79" s="5">
-        <f>-1050+454-1865-T79-S79</f>
+      <c r="U80" s="5">
+        <f>-1050+454-1865-T80-S80</f>
         <v>-554</v>
       </c>
-      <c r="V79" s="5">
-        <f>-1202+742-2040-U79-T79-S79</f>
+      <c r="V80" s="5">
+        <f>-1202+742-2040-U80-T80-S80</f>
         <v>-39</v>
       </c>
-      <c r="W79" s="5">
+      <c r="W80" s="5">
         <f>-150+179-851</f>
         <v>-822</v>
       </c>
     </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S80" s="5">
-        <v>-1091</v>
-      </c>
-      <c r="T80" s="5">
-        <f>-2190-S80</f>
-        <v>-1099</v>
-      </c>
-      <c r="U80" s="5">
-        <f>-3289-T80-S80</f>
-        <v>-1099</v>
-      </c>
-      <c r="V80" s="5">
-        <f>-4391-U80-T80-S80</f>
-        <v>-1102</v>
-      </c>
-      <c r="W80" s="5">
-        <v>-1103</v>
-      </c>
-    </row>
     <row r="81" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S81" s="5">
+        <v>-1091</v>
+      </c>
+      <c r="T81" s="5">
+        <f>-2190-S81</f>
+        <v>-1099</v>
+      </c>
+      <c r="U81" s="5">
+        <f>-3289-T81-S81</f>
+        <v>-1099</v>
+      </c>
+      <c r="V81" s="5">
+        <f>-4391-U81-T81-S81</f>
+        <v>-1102</v>
+      </c>
+      <c r="W81" s="5">
+        <v>-1103</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S81" s="5">
+      <c r="S82" s="5">
         <f>-562-1000</f>
         <v>-1562</v>
       </c>
-      <c r="T81" s="5">
-        <f>1749-3500-S81</f>
+      <c r="T82" s="5">
+        <f>1749-3500-S82</f>
         <v>-189</v>
       </c>
-      <c r="U81" s="5">
-        <f>936-3500-T81-S81</f>
+      <c r="U82" s="5">
+        <f>936-3500-T82-S82</f>
         <v>-813</v>
       </c>
-      <c r="V81" s="5">
-        <f>-167-3500+4-U81-T81-S81</f>
+      <c r="V82" s="5">
+        <f>-167-3500+4-U82-T82-S82</f>
         <v>-1099</v>
       </c>
-      <c r="W81" s="5">
+      <c r="W82" s="5">
         <f>-396+5627-7630</f>
         <v>-2399</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S82" s="5">
-        <v>27</v>
-      </c>
-      <c r="T82" s="5">
-        <f>31-S82</f>
-        <v>4</v>
-      </c>
-      <c r="U82" s="5">
-        <f>34-T82-S82</f>
-        <v>3</v>
-      </c>
-      <c r="V82" s="5">
-        <f>0-U82-T82-S82</f>
-        <v>-34</v>
-      </c>
-      <c r="W82" s="5">
-        <v>-261</v>
-      </c>
-    </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="S83" s="5">
-        <f>SUM(S79:S82)</f>
-        <v>-3528</v>
+        <v>27</v>
       </c>
       <c r="T83" s="5">
-        <f>SUM(T79:T82)</f>
-        <v>-2289</v>
+        <f>31-S83</f>
+        <v>4</v>
       </c>
       <c r="U83" s="5">
-        <f>SUM(U79:U82)</f>
-        <v>-2463</v>
+        <f>34-T83-S83</f>
+        <v>3</v>
       </c>
       <c r="V83" s="5">
-        <f>SUM(V79:V82)</f>
-        <v>-2274</v>
+        <f>0-U83-T83-S83</f>
+        <v>-34</v>
       </c>
       <c r="W83" s="5">
-        <f>SUM(W79:W82)</f>
-        <v>-4585</v>
+        <v>-261</v>
       </c>
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S84" s="4">
-        <v>-36</v>
-      </c>
-      <c r="T84" s="4">
-        <f>-10-S84</f>
-        <v>26</v>
-      </c>
-      <c r="U84" s="4">
-        <f>-2-T84-S84</f>
-        <v>8</v>
-      </c>
-      <c r="V84" s="4">
-        <f>-70-U84-T84-S84</f>
-        <v>-68</v>
+        <v>111</v>
+      </c>
+      <c r="S84" s="5">
+        <f>SUM(S80:S83)</f>
+        <v>-3528</v>
+      </c>
+      <c r="T84" s="5">
+        <f>SUM(T80:T83)</f>
+        <v>-2289</v>
+      </c>
+      <c r="U84" s="5">
+        <f>SUM(U80:U83)</f>
+        <v>-2463</v>
+      </c>
+      <c r="V84" s="5">
+        <f>SUM(V80:V83)</f>
+        <v>-2274</v>
       </c>
       <c r="W84" s="5">
-        <v>85</v>
+        <f>SUM(W80:W83)</f>
+        <v>-4585</v>
       </c>
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S85" s="4">
+        <v>-36</v>
+      </c>
+      <c r="T85" s="4">
+        <f>-10-S85</f>
+        <v>26</v>
+      </c>
+      <c r="U85" s="4">
+        <f>-2-T85-S85</f>
+        <v>8</v>
+      </c>
+      <c r="V85" s="4">
+        <f>-70-U85-T85-S85</f>
+        <v>-68</v>
+      </c>
+      <c r="W85" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B86" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S85" s="5">
-        <f>+S83+S84+S75+S70</f>
+      <c r="S86" s="5">
+        <f>+S84+S85+S76+S71</f>
         <v>1848</v>
       </c>
-      <c r="T85" s="5">
-        <f>+T83+T84+T75+T70</f>
+      <c r="T86" s="5">
+        <f>+T84+T85+T76+T71</f>
         <v>-3369</v>
       </c>
-      <c r="U85" s="5">
-        <f>+U83+U84+U75+U70</f>
+      <c r="U86" s="5">
+        <f>+U84+U85+U76+U71</f>
         <v>1237</v>
       </c>
-      <c r="V85" s="5">
-        <f>+V83+V84+V75+V70</f>
+      <c r="V86" s="5">
+        <f>+V84+V85+V76+V71</f>
         <v>973</v>
       </c>
-      <c r="W85" s="5">
-        <f>+W83+W84+W75+W70</f>
+      <c r="W86" s="5">
+        <f>+W84+W85+W76+W71</f>
         <v>162</v>
       </c>
     </row>
